--- a/settings/serial_numbers_template.xlsx
+++ b/settings/serial_numbers_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.ton\IdeaProjects\VSE_PipeCleaner\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D3349D-397D-49AD-B291-9F2E1935187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35C17FF-6C2F-4264-9E44-B6D339C7792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{7FB1DD3D-86DF-4382-B91E-5A1E56EC2F3A}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
